--- a/CleanData/EvaluationGTU.xlsx
+++ b/CleanData/EvaluationGTU.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="100" windowWidth="22560" windowHeight="18120"/>
+    <workbookView xWindow="-39900" yWindow="2960" windowWidth="22560" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -103,22 +103,7 @@
     <t>N27</t>
   </si>
   <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Faculty of Power Engineering and Telecommunication</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
   </si>
   <si>
     <t>N1</t>
@@ -130,17 +115,32 @@
     <t>N3</t>
   </si>
   <si>
-    <t>Gender</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>Compare with classmates</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty   </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,14 +154,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,17 +194,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,35 +528,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -653,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -746,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -757,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -850,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -861,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -954,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -965,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -1058,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1069,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -1162,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1173,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -1266,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1277,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -1370,7 +1362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1381,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1474,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1485,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1578,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1589,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>8.5</v>
@@ -1682,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1693,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1786,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1797,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1890,7 +1882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1901,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -1994,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2005,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -2098,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="286" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2109,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -2202,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2213,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -2306,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2317,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -2410,7 +2402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2421,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -2514,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2525,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -2618,7 +2610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2629,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -2722,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2733,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -2826,7 +2818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2837,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -2930,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2941,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -3034,7 +3026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3045,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -3138,7 +3130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3149,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -3242,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3253,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -3346,7 +3338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3357,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>9</v>
@@ -3450,7 +3442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3461,7 +3453,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -3554,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3565,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>9</v>
@@ -3658,7 +3650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3669,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -3762,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3773,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -3866,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3877,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -3970,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3981,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>9</v>
@@ -4074,7 +4066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4085,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -4178,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4189,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -4282,7 +4274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4293,7 +4285,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -4386,7 +4378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4397,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>9</v>
@@ -4490,7 +4482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4501,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>9</v>
@@ -4594,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4605,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -4698,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4709,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>9</v>
@@ -4802,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4813,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -4906,7 +4898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4917,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>9</v>
@@ -5010,7 +5002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5021,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>8</v>
@@ -5114,7 +5106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5125,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>9</v>
@@ -5218,7 +5210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5229,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -5322,7 +5314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5333,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -5426,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5437,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -5530,7 +5522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -5541,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -5634,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="286" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5645,7 +5637,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>8</v>
